--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,30 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
@@ -79,24 +76,18 @@
     <t>behind</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -115,7 +106,7 @@
     <t>good</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>better</t>
@@ -130,22 +121,25 @@
     <t>first</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
   </si>
   <si>
     <t>watch</t>
@@ -520,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -581,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9711538461538461</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -631,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -649,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -673,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -681,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,49 +725,49 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C6">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>0.7719298245614035</v>
+      </c>
+      <c r="L6">
+        <v>44</v>
+      </c>
+      <c r="M6">
+        <v>44</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>13</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6">
-        <v>0.7543859649122807</v>
-      </c>
-      <c r="L6">
-        <v>43</v>
-      </c>
-      <c r="M6">
-        <v>43</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8333333333333334</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.7466666666666667</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,13 +825,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -849,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.7368421052631579</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -873,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -881,13 +875,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,16 +896,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.6896551724137931</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -931,13 +925,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7058823529411765</v>
+        <v>0.675</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -949,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L10">
         <v>35</v>
       </c>
-      <c r="K10">
-        <v>0.6</v>
-      </c>
-      <c r="L10">
-        <v>36</v>
-      </c>
       <c r="M10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -973,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -981,13 +975,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.675</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -999,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L11">
         <v>13</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11">
-        <v>0.5185185185185185</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>14</v>
-      </c>
-      <c r="M11">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1031,13 +1025,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1049,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.3939393939393939</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1073,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1081,49 +1075,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6170212765957447</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>63</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="L13">
+        <v>19</v>
+      </c>
+      <c r="M13">
+        <v>19</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>29</v>
-      </c>
-      <c r="D13">
-        <v>29</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="L13">
-        <v>13</v>
-      </c>
-      <c r="M13">
-        <v>13</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1131,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6014492753623188</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1149,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.3541666666666667</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1173,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1181,13 +1175,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1199,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.2213114754098361</v>
+        <v>0.2304189435336976</v>
       </c>
       <c r="L15">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M15">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1223,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1231,38 +1225,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>0.2203389830508475</v>
+      </c>
+      <c r="L16">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>13</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16">
-        <v>0.2033898305084746</v>
-      </c>
-      <c r="L16">
-        <v>12</v>
-      </c>
-      <c r="M16">
-        <v>12</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1273,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1281,13 +1275,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5384615384615384</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1299,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.0286144578313253</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1323,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>645</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1331,7 +1325,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -1349,157 +1343,109 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>66</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19">
+        <v>0.0286144578313253</v>
+      </c>
+      <c r="L19">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>19</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>0.01948051948051948</v>
+      </c>
+      <c r="L20">
         <v>12</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="M20">
+        <v>12</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K18">
-        <v>0.02592592592592593</v>
-      </c>
-      <c r="L18">
-        <v>14</v>
-      </c>
-      <c r="M18">
-        <v>14</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.4571428571428571</v>
-      </c>
-      <c r="C19">
-        <v>16</v>
-      </c>
-      <c r="D19">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>19</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="L19">
-        <v>14</v>
-      </c>
-      <c r="M19">
-        <v>14</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>66</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.01612903225806452</v>
-      </c>
-      <c r="L20">
-        <v>28</v>
-      </c>
-      <c r="M20">
-        <v>28</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.05369127516778523</v>
-      </c>
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>17</v>
-      </c>
-      <c r="E21">
-        <v>0.06</v>
-      </c>
-      <c r="F21">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>282</v>
+      <c r="K21">
+        <v>0.01555299539170507</v>
+      </c>
+      <c r="L21">
+        <v>27</v>
+      </c>
+      <c r="M21">
+        <v>27</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
